--- a/biology/Zoologie/Cryptochiridae/Cryptochiridae.xlsx
+++ b/biology/Zoologie/Cryptochiridae/Cryptochiridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cryptochiridae sont une famille de crabes, la seule de la super-famille des Cryptochiroidea. Elle comprend 46 espèces dans 20 genres.
 Chez de nombreuses espèces de cette famille, les femelles vivent enfermées dans des galles qu'elles forment dans le corail. Ce comportement a été tout spécialement étudié chez Hapalocarcinus marsupialis.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (14 mai 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (14 mai 2014) :
 genre Cecidocarcinus Kropp &amp; Manning, 1987
 genre Cryptochirus Heller, 1861
 genre Dacryomaia Kropp, 1990
@@ -563,7 +577,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paulson, 1875 : Izledovaniya rakoobraznvkh krasnago morya s zametkami otnositel'no rakoobraznykh drugikh morei. Chast' 1, Podophthalmata i Edriophthalmata (Cumacea) (Studies on Crustacea of the Red Sea with notes regarding other seas. Part I. Podophthalmata and Edriophthalmata (Cumacea). Kiev, p. 1-144.</t>
         </is>
@@ -593,7 +609,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17 p. 1–286.</t>
         </is>
